--- a/workfile/锐安项目文档/锐安项目二期/bi/数据/二期数据源_20191224.xlsx
+++ b/workfile/锐安项目文档/锐安项目二期/bi/数据/二期数据源_20191224.xlsx
@@ -2176,6 +2176,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2183,9 +2186,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2668,10 +2668,10 @@
       <c r="F8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
+      <c r="H9" s="83"/>
     </row>
     <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="81"/>
@@ -2713,7 +2713,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="81"/>
@@ -2733,7 +2733,7 @@
         <v>33</v>
       </c>
       <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
+      <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="81"/>
@@ -2753,7 +2753,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="81"/>
-      <c r="H12" s="82"/>
+      <c r="H12" s="83"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="81"/>
@@ -2773,7 +2773,7 @@
         <v>36</v>
       </c>
       <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
@@ -2781,7 +2781,7 @@
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="82" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -2796,15 +2796,15 @@
       <c r="F15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="82" t="s">
+      <c r="G15" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="85" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="85"/>
+      <c r="A16" s="82"/>
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -2821,7 +2821,7 @@
       <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="85"/>
+      <c r="A17" s="82"/>
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="85"/>
+      <c r="A18" s="82"/>
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="H18" s="81"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="85"/>
+      <c r="A19" s="82"/>
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="F21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="83" t="s">
+      <c r="G21" s="84" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       <c r="F22" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="83"/>
+      <c r="G22" s="84"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
@@ -2933,7 +2933,7 @@
       <c r="F23" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="83"/>
+      <c r="G23" s="84"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
@@ -2951,7 +2951,7 @@
       <c r="F24" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="83"/>
+      <c r="G24" s="84"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
@@ -2969,7 +2969,7 @@
       <c r="F25" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="83"/>
+      <c r="G25" s="84"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
@@ -3021,6 +3021,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="H15:H19"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A15:A19"/>
@@ -3028,8 +3030,6 @@
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="G15:G19"/>
     <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="H15:H19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3040,9 +3040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/workfile/锐安项目文档/锐安项目二期/bi/数据/二期数据源_20191224.xlsx
+++ b/workfile/锐安项目文档/锐安项目二期/bi/数据/二期数据源_20191224.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="17865" windowHeight="6195" activeTab="1"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="17865" windowHeight="6195" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="销售管理" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">工程售后!$A$1:$H$148</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="394">
   <si>
     <t>BI模块</t>
   </si>
@@ -1766,6 +1766,10 @@
       </rPr>
       <t>ity</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi_report_ygsj</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1837,6 +1841,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2172,6 +2177,12 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2179,13 +2190,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2553,7 +2558,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2573,7 +2578,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="81"/>
+      <c r="A3" s="83"/>
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2591,7 +2596,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
+      <c r="A4" s="83"/>
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -2609,7 +2614,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
+      <c r="A5" s="83"/>
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -2627,7 +2632,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
+      <c r="A6" s="83"/>
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -2650,7 +2655,7 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="83" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2668,15 +2673,15 @@
       <c r="F8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="81" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
+      <c r="A9" s="83"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -2692,11 +2697,11 @@
       <c r="F9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="82"/>
     </row>
     <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
+      <c r="A10" s="83"/>
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -2712,11 +2717,11 @@
       <c r="F10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="82"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="81"/>
+      <c r="A11" s="83"/>
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -2732,11 +2737,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="82"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="81"/>
+      <c r="A12" s="83"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -2752,11 +2757,11 @@
       <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="81"/>
+      <c r="A13" s="83"/>
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -2772,8 +2777,8 @@
       <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="82"/>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
@@ -2781,7 +2786,7 @@
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="84" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -2796,15 +2801,15 @@
       <c r="F15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H15" s="81" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="82"/>
+      <c r="A16" s="84"/>
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -2817,11 +2822,11 @@
       <c r="F16" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="82"/>
+      <c r="A17" s="84"/>
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -2834,11 +2839,11 @@
       <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="82"/>
+      <c r="A18" s="84"/>
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -2851,11 +2856,11 @@
       <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="82"/>
+      <c r="A19" s="84"/>
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -2868,8 +2873,8 @@
       <c r="F19" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
@@ -2895,7 +2900,7 @@
       <c r="F21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="84" t="s">
+      <c r="G21" s="85" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2915,7 +2920,7 @@
       <c r="F22" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="84"/>
+      <c r="G22" s="85"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
@@ -2933,7 +2938,7 @@
       <c r="F23" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="84"/>
+      <c r="G23" s="85"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
@@ -2951,7 +2956,7 @@
       <c r="F24" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="84"/>
+      <c r="G24" s="85"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
@@ -2969,7 +2974,7 @@
       <c r="F25" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="84"/>
+      <c r="G25" s="85"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
@@ -2977,7 +2982,7 @@
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="83" t="s">
         <v>58</v>
       </c>
       <c r="B27" t="s">
@@ -2985,31 +2990,31 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="81"/>
+      <c r="A28" s="83"/>
       <c r="B28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="81"/>
+      <c r="A29" s="83"/>
       <c r="B29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="81"/>
+      <c r="A30" s="83"/>
       <c r="B30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="81"/>
+      <c r="A31" s="83"/>
       <c r="B31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="81"/>
+      <c r="A32" s="83"/>
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -3021,15 +3026,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G21:G25"/>
     <mergeCell ref="H8:H13"/>
     <mergeCell ref="H15:H19"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G21:G25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3041,8 +3046,8 @@
   <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5005,7 +5010,7 @@
         <v>374</v>
       </c>
       <c r="E99" s="49" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="F99" s="51" t="s">
         <v>369</v>

--- a/workfile/锐安项目文档/锐安项目二期/bi/数据/二期数据源_20191224.xlsx
+++ b/workfile/锐安项目文档/锐安项目二期/bi/数据/二期数据源_20191224.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="17865" windowHeight="6195" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="17865" windowHeight="6195" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="销售管理" sheetId="3" r:id="rId1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="395">
   <si>
     <t>BI模块</t>
   </si>
@@ -795,9 +795,6 @@
     <t>预计完成时间</t>
   </si>
   <si>
-    <t>工程售后项目-工程项目管理-计划完成时间</t>
-  </si>
-  <si>
     <t>plan_finish_date</t>
   </si>
   <si>
@@ -1770,6 +1767,14 @@
   </si>
   <si>
     <t>bi_report_ygsj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>取数菜单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后项目-工程项目管理-计划完成时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2177,20 +2182,20 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2558,7 +2563,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2578,7 +2583,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="83"/>
+      <c r="A3" s="81"/>
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2596,7 +2601,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="83"/>
+      <c r="A4" s="81"/>
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -2614,7 +2619,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
+      <c r="A5" s="81"/>
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -2632,7 +2637,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
+      <c r="A6" s="81"/>
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -2655,7 +2660,7 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="81" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2673,15 +2678,15 @@
       <c r="F8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="85" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="83"/>
+      <c r="A9" s="81"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -2697,11 +2702,11 @@
       <c r="F9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="82"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="83"/>
     </row>
     <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
+      <c r="A10" s="81"/>
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -2717,11 +2722,11 @@
       <c r="F10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="82"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="83"/>
+      <c r="A11" s="81"/>
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -2737,11 +2742,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="82"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="83"/>
+      <c r="A12" s="81"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -2757,11 +2762,11 @@
       <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="82"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="83"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="83"/>
+      <c r="A13" s="81"/>
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -2777,8 +2782,8 @@
       <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="82"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
@@ -2786,7 +2791,7 @@
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="82" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -2801,15 +2806,15 @@
       <c r="F15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="82" t="s">
+      <c r="G15" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="85" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="84"/>
+      <c r="A16" s="82"/>
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -2822,11 +2827,11 @@
       <c r="F16" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="84"/>
+      <c r="A17" s="82"/>
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -2839,11 +2844,11 @@
       <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="84"/>
+      <c r="A18" s="82"/>
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -2856,11 +2861,11 @@
       <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="84"/>
+      <c r="A19" s="82"/>
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -2873,8 +2878,8 @@
       <c r="F19" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
@@ -2900,7 +2905,7 @@
       <c r="F21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="85" t="s">
+      <c r="G21" s="84" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2920,7 +2925,7 @@
       <c r="F22" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="85"/>
+      <c r="G22" s="84"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
@@ -2938,7 +2943,7 @@
       <c r="F23" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="85"/>
+      <c r="G23" s="84"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
@@ -2956,7 +2961,7 @@
       <c r="F24" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="85"/>
+      <c r="G24" s="84"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
@@ -2974,7 +2979,7 @@
       <c r="F25" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="85"/>
+      <c r="G25" s="84"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
@@ -2982,7 +2987,7 @@
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="81" t="s">
         <v>58</v>
       </c>
       <c r="B27" t="s">
@@ -2990,31 +2995,31 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="83"/>
+      <c r="A28" s="81"/>
       <c r="B28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="83"/>
+      <c r="A29" s="81"/>
       <c r="B29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="83"/>
+      <c r="A30" s="81"/>
       <c r="B30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="83"/>
+      <c r="A31" s="81"/>
       <c r="B31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="83"/>
+      <c r="A32" s="81"/>
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -3026,15 +3031,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G21:G25"/>
     <mergeCell ref="H8:H13"/>
     <mergeCell ref="H15:H19"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G21:G25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3045,9 +3050,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99:E99"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3070,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>2</v>
+        <v>393</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>3</v>
@@ -3082,7 +3087,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>7</v>
@@ -3119,10 +3124,10 @@
         <v>68</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H3" s="28"/>
     </row>
@@ -3144,7 +3149,7 @@
         <v>71</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H4" s="28"/>
     </row>
@@ -3160,13 +3165,13 @@
         <v>67</v>
       </c>
       <c r="E5" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>304</v>
-      </c>
       <c r="G5" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H5" s="28"/>
     </row>
@@ -3185,10 +3190,10 @@
         <v>68</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H6" s="28"/>
     </row>
@@ -3206,7 +3211,7 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H7" s="28"/>
     </row>
@@ -3218,22 +3223,22 @@
         <v>79</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D8" s="48" t="s">
         <v>83</v>
       </c>
       <c r="E8" s="51" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>389</v>
-      </c>
       <c r="H8" s="51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3261,7 +3266,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -3300,16 +3305,16 @@
         <v>87</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D13" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>372</v>
-      </c>
       <c r="F13" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
@@ -3320,16 +3325,16 @@
         <v>88</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
@@ -3340,19 +3345,19 @@
         <v>89</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H15" s="33"/>
     </row>
@@ -3362,19 +3367,19 @@
         <v>90</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H16" s="39"/>
     </row>
@@ -3384,35 +3389,35 @@
         <v>93</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>83</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>96</v>
@@ -3432,7 +3437,7 @@
         <v>67</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>75</v>
@@ -3446,19 +3451,19 @@
         <v>99</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H20" s="39"/>
     </row>
@@ -3474,13 +3479,13 @@
         <v>67</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H21" s="39"/>
     </row>
@@ -3548,10 +3553,10 @@
         <v>83</v>
       </c>
       <c r="E25" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="F25" s="28" t="s">
         <v>313</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>314</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -3568,10 +3573,10 @@
         <v>83</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -3602,10 +3607,10 @@
         <v>67</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>117</v>
@@ -3618,19 +3623,19 @@
         <v>118</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H29" s="39"/>
     </row>
@@ -3640,13 +3645,13 @@
         <v>120</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>83</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F30" s="28" t="s">
         <v>122</v>
@@ -3728,13 +3733,13 @@
         <v>131</v>
       </c>
       <c r="E34" s="78" t="s">
+        <v>353</v>
+      </c>
+      <c r="F34" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="G34" s="78" t="s">
         <v>354</v>
-      </c>
-      <c r="F34" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="G34" s="78" t="s">
-        <v>355</v>
       </c>
       <c r="H34" s="77"/>
     </row>
@@ -3753,7 +3758,7 @@
         <v>115</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>117</v>
@@ -3775,7 +3780,7 @@
         <v>115</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>117</v>
@@ -3810,19 +3815,19 @@
         <v>147</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D38" s="50" t="s">
         <v>143</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H38" s="48"/>
     </row>
@@ -3832,22 +3837,22 @@
         <v>149</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D39" s="62" t="s">
         <v>83</v>
       </c>
       <c r="E39" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="F39" s="74" t="s">
+      <c r="G39" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="H39" s="74" t="s">
         <v>268</v>
-      </c>
-      <c r="G39" s="74" t="s">
-        <v>275</v>
-      </c>
-      <c r="H39" s="74" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
@@ -3856,7 +3861,7 @@
         <v>154</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>155</v>
+        <v>394</v>
       </c>
       <c r="D40" s="48" t="s">
         <v>67</v>
@@ -3865,20 +3870,20 @@
         <v>68</v>
       </c>
       <c r="F40" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
     </row>
     <row r="41" spans="1:8" s="19" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="C41" s="49" t="s">
         <v>158</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>159</v>
       </c>
       <c r="D41" s="48" t="s">
         <v>67</v>
@@ -3895,16 +3900,16 @@
     <row r="42" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="47"/>
       <c r="B42" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="50" t="s">
         <v>160</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>161</v>
       </c>
       <c r="D42" s="48" t="s">
         <v>67</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F42" s="50" t="s">
         <v>137</v>
@@ -3914,7 +3919,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="28"/>
       <c r="C43" s="29">
@@ -3932,26 +3937,26 @@
         <v>30</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D44" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E44" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G44" s="39" t="s">
         <v>282</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="G44" s="39" t="s">
-        <v>283</v>
       </c>
       <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>124</v>
@@ -3973,7 +3978,7 @@
     <row r="46" spans="1:8" s="20" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="67"/>
       <c r="B46" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C46" s="68" t="s">
         <v>130</v>
@@ -3995,7 +4000,7 @@
     <row r="47" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>136</v>
@@ -4017,117 +4022,117 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="30"/>
       <c r="B48" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D48" s="48" t="s">
         <v>83</v>
       </c>
       <c r="E48" s="51" t="s">
+        <v>387</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="G48" s="51" t="s">
         <v>388</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="G48" s="51" t="s">
-        <v>389</v>
       </c>
       <c r="H48" s="28"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
       <c r="B49" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D49" s="48" t="s">
         <v>83</v>
       </c>
       <c r="E49" s="51" t="s">
+        <v>387</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="G49" s="51" t="s">
         <v>388</v>
-      </c>
-      <c r="F49" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="G49" s="51" t="s">
-        <v>389</v>
       </c>
       <c r="H49" s="28"/>
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="38"/>
       <c r="B50" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="40" t="s">
         <v>169</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>170</v>
       </c>
       <c r="D50" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F50" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="38"/>
       <c r="B51" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D51" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G51" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="38"/>
       <c r="B52" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D52" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E52" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F52" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="G52" s="39" t="s">
         <v>278</v>
-      </c>
-      <c r="G52" s="39" t="s">
-        <v>279</v>
       </c>
       <c r="H52" s="39"/>
     </row>
     <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="42"/>
       <c r="B53" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53" s="44">
         <v>1</v>
@@ -4140,19 +4145,19 @@
     </row>
     <row r="54" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="32" t="s">
         <v>174</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>175</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F54" s="29" t="s">
         <v>116</v>
@@ -4163,16 +4168,16 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="45"/>
       <c r="B55" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F55" s="29" t="s">
         <v>137</v>
@@ -4182,7 +4187,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" s="28"/>
       <c r="C56" s="29">
@@ -4197,10 +4202,10 @@
     <row r="57" spans="1:8" s="20" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A57" s="60"/>
       <c r="B57" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="68" t="s">
         <v>177</v>
-      </c>
-      <c r="C57" s="68" t="s">
-        <v>178</v>
       </c>
       <c r="D57" s="69" t="s">
         <v>131</v>
@@ -4209,20 +4214,20 @@
         <v>132</v>
       </c>
       <c r="F57" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="69" t="s">
         <v>179</v>
-      </c>
-      <c r="G57" s="69" t="s">
-        <v>180</v>
       </c>
       <c r="H57" s="60"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="30"/>
       <c r="B58" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="32" t="s">
         <v>181</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>182</v>
       </c>
       <c r="D58" s="28" t="s">
         <v>67</v>
@@ -4239,7 +4244,7 @@
     <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="42"/>
       <c r="B59" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C59" s="44">
         <v>1</v>
@@ -4264,7 +4269,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B61" s="28"/>
       <c r="C61" s="29">
@@ -4281,10 +4286,10 @@
         <v>64</v>
       </c>
       <c r="B62" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>67</v>
@@ -4304,7 +4309,7 @@
         <v>97</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>67</v>
@@ -4321,10 +4326,10 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="28"/>
       <c r="B64" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>188</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>189</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>67</v>
@@ -4342,13 +4347,13 @@
     </row>
     <row r="65" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B65" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>67</v>
@@ -4365,171 +4370,171 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="28"/>
       <c r="B66" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D66" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="E66" s="34" t="s">
         <v>374</v>
       </c>
-      <c r="E66" s="34" t="s">
-        <v>375</v>
-      </c>
       <c r="F66" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G66" s="28"/>
       <c r="H66" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="55"/>
       <c r="B67" s="55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
       <c r="F67" s="56"/>
       <c r="G67" s="55"/>
       <c r="H67" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="28"/>
       <c r="B68" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
       <c r="F68" s="29"/>
       <c r="G68" s="28"/>
       <c r="H68" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="28"/>
       <c r="B69" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="D69" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="E69" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="F69" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="G69" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="G69" s="28" t="s">
+      <c r="H69" s="28" t="s">
         <v>202</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="28"/>
       <c r="B70" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H70" s="31" t="s">
         <v>204</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="F70" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="G70" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="H70" s="31" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="28"/>
       <c r="B71" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="32" t="s">
         <v>206</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>207</v>
       </c>
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
       <c r="F71" s="29"/>
       <c r="G71" s="28"/>
       <c r="H71" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="28"/>
       <c r="B72" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
       <c r="F72" s="29"/>
       <c r="G72" s="28"/>
       <c r="H72" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="28"/>
       <c r="B73" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" s="32" t="s">
         <v>211</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>212</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
       <c r="F73" s="29"/>
       <c r="G73" s="28"/>
       <c r="H73" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D74" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="E74" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="E74" s="49" t="s">
-        <v>372</v>
-      </c>
       <c r="F74" s="51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G74" s="48"/>
       <c r="H74" s="28"/>
@@ -4540,16 +4545,16 @@
         <v>88</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E75" s="49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F75" s="51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G75" s="48"/>
       <c r="H75" s="28"/>
@@ -4560,19 +4565,19 @@
         <v>89</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E76" s="49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F76" s="51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G76" s="70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H76" s="28"/>
     </row>
@@ -4618,19 +4623,19 @@
         <v>90</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E79" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F79" s="70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G79" s="70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H79" s="28"/>
     </row>
@@ -4681,7 +4686,7 @@
     <row r="82" spans="1:8" s="20" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A82" s="60"/>
       <c r="B82" s="80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C82" s="68" t="s">
         <v>130</v>
@@ -4690,7 +4695,7 @@
         <v>131</v>
       </c>
       <c r="E82" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F82" s="69" t="s">
         <v>133</v>
@@ -4750,13 +4755,13 @@
         <v>141</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D85" s="29" t="s">
         <v>143</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F85" s="29" t="s">
         <v>145</v>
@@ -4772,7 +4777,7 @@
         <v>147</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D86" s="29" t="s">
         <v>143</v>
@@ -4830,7 +4835,7 @@
         <v>95</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>67</v>
@@ -4850,7 +4855,7 @@
         <v>97</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>67</v>
@@ -4867,10 +4872,10 @@
     <row r="91" spans="1:8" s="20" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A91" s="60"/>
       <c r="B91" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C91" s="68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D91" s="60"/>
       <c r="E91" s="60"/>
@@ -4881,10 +4886,10 @@
     <row r="92" spans="1:8" s="20" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A92" s="60"/>
       <c r="B92" s="60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C92" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D92" s="60"/>
       <c r="E92" s="60"/>
@@ -4895,39 +4900,39 @@
     <row r="93" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="55"/>
       <c r="B93" s="57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D93" s="55"/>
       <c r="E93" s="55"/>
       <c r="F93" s="56"/>
       <c r="G93" s="55"/>
       <c r="H93" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="55"/>
       <c r="B94" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C94" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D94" s="55"/>
       <c r="E94" s="55"/>
       <c r="F94" s="56"/>
       <c r="G94" s="55"/>
       <c r="H94" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="55"/>
       <c r="B95" s="55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C95" s="56"/>
       <c r="D95" s="55"/>
@@ -4935,18 +4940,18 @@
       <c r="F95" s="55"/>
       <c r="G95" s="55"/>
       <c r="H95" s="57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B96" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="32" t="s">
         <v>185</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>186</v>
       </c>
       <c r="D96" s="28" t="s">
         <v>67</v>
@@ -4963,10 +4968,10 @@
     <row r="97" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="28"/>
       <c r="B97" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" s="29" t="s">
         <v>228</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>229</v>
       </c>
       <c r="D97" s="28" t="s">
         <v>67</v>
@@ -4983,16 +4988,16 @@
     <row r="98" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="28"/>
       <c r="B98" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D98" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F98" s="29"/>
       <c r="G98" s="28"/>
@@ -5001,22 +5006,22 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="28"/>
       <c r="B99" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E99" s="49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F99" s="51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G99" s="70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H99" s="28"/>
     </row>
@@ -5034,7 +5039,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B101" s="28"/>
       <c r="C101" s="29">
@@ -5051,16 +5056,16 @@
         <v>64</v>
       </c>
       <c r="B102" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="32" t="s">
         <v>234</v>
-      </c>
-      <c r="C102" s="32" t="s">
-        <v>235</v>
       </c>
       <c r="D102" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F102" s="29" t="s">
         <v>69</v>
@@ -5074,13 +5079,13 @@
         <v>97</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E103" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F103" s="29" t="s">
         <v>75</v>
@@ -5091,40 +5096,40 @@
     <row r="104" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="39"/>
       <c r="B104" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D104" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E104" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F104" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="G104" s="39" t="s">
         <v>282</v>
-      </c>
-      <c r="F104" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="G104" s="39" t="s">
-        <v>283</v>
       </c>
       <c r="H104" s="39"/>
     </row>
     <row r="105" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D105" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F105" s="29" t="s">
         <v>69</v>
@@ -5135,168 +5140,168 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="28"/>
       <c r="B106" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="D106" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="E106" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="F106" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="G106" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="H106" s="31" t="s">
         <v>238</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="D106" s="49" t="s">
-        <v>374</v>
-      </c>
-      <c r="E106" s="49" t="s">
-        <v>378</v>
-      </c>
-      <c r="F106" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="G106" s="70" t="s">
-        <v>380</v>
-      </c>
-      <c r="H106" s="31" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="33"/>
       <c r="B107" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C107" s="34" t="s">
         <v>240</v>
-      </c>
-      <c r="C107" s="34" t="s">
-        <v>241</v>
       </c>
       <c r="D107" s="33"/>
       <c r="E107" s="33"/>
       <c r="F107" s="64"/>
       <c r="G107" s="33"/>
       <c r="H107" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="33"/>
       <c r="B108" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D108" s="33"/>
       <c r="E108" s="33"/>
       <c r="F108" s="64"/>
       <c r="G108" s="33"/>
       <c r="H108" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A109" s="33"/>
       <c r="B109" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C109" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D109" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E109" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="F109" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="F109" s="34" t="s">
+      <c r="G109" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="G109" s="34" t="s">
-        <v>288</v>
-      </c>
       <c r="H109" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="33"/>
       <c r="B110" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C110" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="D110" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E110" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="F110" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G110" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="H110" s="35" t="s">
         <v>204</v>
-      </c>
-      <c r="C110" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="D110" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="E110" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="F110" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="G110" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="H110" s="35" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="21" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A111" s="33"/>
       <c r="B111" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C111" s="34" t="s">
+      <c r="D111" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E111" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="F111" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G111" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H111" s="35" t="s">
         <v>207</v>
-      </c>
-      <c r="D111" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="E111" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="F111" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="G111" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="H111" s="35" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="21" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A112" s="33"/>
       <c r="B112" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E112" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="F112" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G112" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H112" s="35" t="s">
         <v>209</v>
-      </c>
-      <c r="C112" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="E112" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="F112" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="G112" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="H112" s="35" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="28"/>
       <c r="B113" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D113" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F113" s="29" t="s">
         <v>75</v>
@@ -5306,7 +5311,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B114" s="28"/>
       <c r="C114" s="29">
@@ -5324,16 +5329,16 @@
         <v>87</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D115" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="E115" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="E115" s="49" t="s">
-        <v>372</v>
-      </c>
       <c r="F115" s="51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G115" s="28"/>
       <c r="H115" s="28"/>
@@ -5344,16 +5349,16 @@
         <v>88</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D116" s="49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E116" s="49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F116" s="51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G116" s="28"/>
       <c r="H116" s="28"/>
@@ -5364,16 +5369,16 @@
         <v>30</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D117" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F117" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G117" s="28"/>
       <c r="H117" s="28"/>
@@ -5381,22 +5386,22 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="28"/>
       <c r="B118" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D118" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E118" s="49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F118" s="51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G118" s="70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H118" s="28"/>
     </row>
@@ -5406,41 +5411,41 @@
         <v>90</v>
       </c>
       <c r="C119" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D119" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E119" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F119" s="70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G119" s="70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H119" s="28"/>
     </row>
     <row r="120" spans="1:8" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A120" s="33"/>
       <c r="B120" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D120" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E120" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F120" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G120" s="39" t="s">
         <v>282</v>
-      </c>
-      <c r="F120" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="G120" s="39" t="s">
-        <v>283</v>
       </c>
       <c r="H120" s="33"/>
     </row>
@@ -5450,101 +5455,101 @@
         <v>141</v>
       </c>
       <c r="C121" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D121" s="68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E121" s="68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F121" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G121" s="68" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H121" s="60"/>
     </row>
     <row r="122" spans="1:8" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A122" s="33"/>
       <c r="B122" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D122" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E122" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F122" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G122" s="39" t="s">
         <v>282</v>
-      </c>
-      <c r="F122" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="G122" s="39" t="s">
-        <v>283</v>
       </c>
       <c r="H122" s="33"/>
     </row>
     <row r="123" spans="1:8" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A123" s="33"/>
       <c r="B123" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D123" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E123" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F123" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="F123" s="40" t="s">
+      <c r="G123" s="39" t="s">
         <v>278</v>
-      </c>
-      <c r="G123" s="39" t="s">
-        <v>279</v>
       </c>
       <c r="H123" s="33"/>
     </row>
     <row r="124" spans="1:8" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A124" s="33"/>
       <c r="B124" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D124" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E124" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F124" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="F124" s="40" t="s">
+      <c r="G124" s="39" t="s">
         <v>278</v>
-      </c>
-      <c r="G124" s="39" t="s">
-        <v>279</v>
       </c>
       <c r="H124" s="33"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="28"/>
       <c r="B125" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" s="32" t="s">
         <v>181</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>182</v>
       </c>
       <c r="D125" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E125" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F125" s="29" t="s">
         <v>75</v>
@@ -5555,7 +5560,7 @@
     <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="43"/>
       <c r="B126" s="62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C126" s="44">
         <v>1</v>
@@ -5569,50 +5574,50 @@
     <row r="127" spans="1:8" s="20" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A127" s="60"/>
       <c r="B127" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C127" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D127" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="E127" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="E127" s="68" t="s">
-        <v>294</v>
-      </c>
       <c r="F127" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G127" s="68" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H127" s="60"/>
     </row>
     <row r="128" spans="1:8" s="20" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A128" s="60"/>
       <c r="B128" s="60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C128" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D128" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="E128" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="E128" s="68" t="s">
+      <c r="F128" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="G128" s="68" t="s">
         <v>294</v>
-      </c>
-      <c r="F128" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="G128" s="68" t="s">
-        <v>295</v>
       </c>
       <c r="H128" s="60"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B129" s="28"/>
       <c r="C129" s="29">
@@ -5630,16 +5635,16 @@
         <v>87</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D130" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="E130" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="E130" s="49" t="s">
-        <v>372</v>
-      </c>
       <c r="F130" s="51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G130" s="28"/>
       <c r="H130" s="28"/>
@@ -5650,16 +5655,16 @@
         <v>88</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D131" s="49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E131" s="49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F131" s="51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G131" s="28"/>
       <c r="H131" s="28"/>
@@ -5667,22 +5672,22 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="28"/>
       <c r="B132" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D132" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E132" s="49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F132" s="51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G132" s="70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H132" s="28"/>
     </row>
@@ -5692,19 +5697,19 @@
         <v>90</v>
       </c>
       <c r="C133" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D133" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E133" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F133" s="70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G133" s="70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H133" s="28"/>
     </row>
@@ -5714,19 +5719,19 @@
         <v>118</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D134" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E134" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F134" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G134" s="39" t="s">
         <v>282</v>
-      </c>
-      <c r="F134" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="G134" s="39" t="s">
-        <v>283</v>
       </c>
       <c r="H134" s="33"/>
     </row>
@@ -5758,19 +5763,19 @@
         <v>141</v>
       </c>
       <c r="C136" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D136" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="E136" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="E136" s="68" t="s">
+      <c r="F136" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="G136" s="68" t="s">
         <v>294</v>
-      </c>
-      <c r="F136" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="G136" s="68" t="s">
-        <v>295</v>
       </c>
       <c r="H136" s="60"/>
     </row>
@@ -5780,26 +5785,26 @@
         <v>147</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D137" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E137" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F137" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G137" s="39" t="s">
         <v>282</v>
-      </c>
-      <c r="F137" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="G137" s="39" t="s">
-        <v>283</v>
       </c>
       <c r="H137" s="33"/>
     </row>
     <row r="138" spans="1:8" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A138" s="33"/>
       <c r="B138" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C138" s="34" t="s">
         <v>100</v>
@@ -5808,35 +5813,35 @@
         <v>67</v>
       </c>
       <c r="E138" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F138" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="F138" s="40" t="s">
+      <c r="G138" s="39" t="s">
         <v>278</v>
-      </c>
-      <c r="G138" s="39" t="s">
-        <v>279</v>
       </c>
       <c r="H138" s="33"/>
     </row>
     <row r="139" spans="1:8" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A139" s="33"/>
       <c r="B139" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D139" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E139" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="F139" s="40" t="s">
+      <c r="G139" s="39" t="s">
         <v>278</v>
-      </c>
-      <c r="G139" s="39" t="s">
-        <v>279</v>
       </c>
       <c r="H139" s="33"/>
     </row>
@@ -5846,13 +5851,13 @@
         <v>97</v>
       </c>
       <c r="C140" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D140" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E140" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F140" s="29" t="s">
         <v>75</v>
@@ -5863,7 +5868,7 @@
     <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="43"/>
       <c r="B141" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C141" s="44">
         <v>1</v>
@@ -5877,50 +5882,50 @@
     <row r="142" spans="1:8" s="20" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A142" s="60"/>
       <c r="B142" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C142" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D142" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="E142" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="E142" s="68" t="s">
+      <c r="F142" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="G142" s="68" t="s">
         <v>294</v>
-      </c>
-      <c r="F142" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="G142" s="68" t="s">
-        <v>295</v>
       </c>
       <c r="H142" s="60"/>
     </row>
     <row r="143" spans="1:8" s="20" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A143" s="60"/>
       <c r="B143" s="60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C143" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D143" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="E143" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="E143" s="68" t="s">
+      <c r="F143" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="G143" s="68" t="s">
         <v>294</v>
-      </c>
-      <c r="F143" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="G143" s="68" t="s">
-        <v>295</v>
       </c>
       <c r="H143" s="60"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B144" s="28"/>
       <c r="C144" s="29">
@@ -5935,10 +5940,10 @@
     <row r="145" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="30"/>
       <c r="B145" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C145" s="63" t="s">
         <v>256</v>
-      </c>
-      <c r="C145" s="63" t="s">
-        <v>257</v>
       </c>
       <c r="D145" s="28"/>
       <c r="E145" s="28"/>
@@ -5952,63 +5957,63 @@
         <v>99</v>
       </c>
       <c r="C146" s="64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D146" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E146" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="F146" s="40" t="s">
+      <c r="G146" s="39" t="s">
         <v>278</v>
-      </c>
-      <c r="G146" s="39" t="s">
-        <v>279</v>
       </c>
       <c r="H146" s="33"/>
     </row>
     <row r="147" spans="1:8" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A147" s="33"/>
       <c r="B147" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C147" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E147" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F147" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G147" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H147" s="33"/>
     </row>
     <row r="148" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="60"/>
       <c r="B148" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D148" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E148" s="49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F148" s="51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G148" s="70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H148" s="60"/>
     </row>
@@ -6053,13 +6058,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6067,7 +6072,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6075,7 +6080,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6083,7 +6088,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6091,7 +6096,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6099,7 +6104,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6123,7 +6128,7 @@
         <v>129</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6131,7 +6136,7 @@
         <v>135</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6155,7 +6160,7 @@
         <v>147</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6163,20 +6168,20 @@
         <v>30</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>130</v>
@@ -6184,7 +6189,7 @@
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>136</v>
@@ -6192,34 +6197,34 @@
     </row>
     <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6232,7 +6237,7 @@
     </row>
     <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>130</v>
@@ -6243,31 +6248,31 @@
         <v>141</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>234</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6275,15 +6280,15 @@
         <v>30</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6291,31 +6296,31 @@
         <v>141</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6323,36 +6328,36 @@
         <v>147</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" t="s">
         <v>320</v>
-      </c>
-      <c r="B41" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s">
         <v>97</v>
@@ -6360,26 +6365,26 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -6389,47 +6394,47 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
